--- a/低碳城市试点名单.xlsx
+++ b/低碳城市试点名单.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C132"/>
+  <dimension ref="A1:C143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1968,7 +1968,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>三门峡市</t>
+          <t>三明市</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1983,7 +1983,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>乌海市</t>
+          <t>三门峡市</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1998,7 +1998,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>兰州市</t>
+          <t>乌海市</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -2013,7 +2013,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>南京市</t>
+          <t>六安市</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -2028,7 +2028,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>南平市</t>
+          <t>兰州市</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -2043,7 +2043,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>合肥市</t>
+          <t>南京市</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -2058,7 +2058,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>南平市</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -2073,7 +2073,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>合肥市</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -2088,7 +2088,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>和田地区</t>
+          <t>吉安市</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -2103,7 +2103,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>喀什地区</t>
+          <t>吴忠市</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -2118,7 +2118,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>嘉兴市</t>
+          <t>和田地区</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -2133,7 +2133,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>常州市</t>
+          <t>喀什地区</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -2148,7 +2148,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>广元市</t>
+          <t>嘉兴市</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -2163,7 +2163,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>成都市</t>
+          <t>宣城市</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -2178,7 +2178,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>常州市</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -2193,7 +2193,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>无锡市</t>
+          <t>广元市</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -2208,7 +2208,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>昌吉回族自治州</t>
+          <t>成都市</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -2223,7 +2223,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>柳州市</t>
+          <t>拉萨市</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -2238,7 +2238,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>株洲市</t>
+          <t>无锡市</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -2253,7 +2253,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>淄博市</t>
+          <t>昌吉回族自治州</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -2268,7 +2268,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>柳州市</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -2283,7 +2283,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>湘潭市</t>
+          <t>株洲市</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -2298,7 +2298,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>焦作市</t>
+          <t>济源市</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -2313,7 +2313,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>福州市</t>
+          <t>淄博市</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -2328,7 +2328,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>淮北市</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -2343,7 +2343,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>西宁市</t>
+          <t>湘潭市</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -2358,7 +2358,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>郑州市</t>
+          <t>潍坊市</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -2373,7 +2373,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>郴州市</t>
+          <t>烟台市</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -2388,7 +2388,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>银川市</t>
+          <t>焦作市</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -2403,13 +2403,178 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
+          <t>福州市</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>第三批</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>萍乡市</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>第三批</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>衢州市</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>第三批</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>西宁市</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>第三批</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>第三批</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>遵义市</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>第三批</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>郑州市</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>第三批</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>郴州市</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>第三批</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>金华市</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>第三批</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>银川市</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>第三批</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
           <t>长沙市</t>
         </is>
       </c>
-      <c r="B132" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C132" t="inlineStr">
+      <c r="B142" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>第三批</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>黄山市</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C143" t="inlineStr">
         <is>
           <t>第三批</t>
         </is>

--- a/低碳城市试点名单.xlsx
+++ b/低碳城市试点名单.xlsx
@@ -1818,7 +1818,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>海口市</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1833,7 +1833,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>海口市</t>
+          <t>淮安市</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1848,7 +1848,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>淮安市</t>
+          <t>温州市</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -1863,7 +1863,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>温州市</t>
+          <t>石家庄市</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -1878,7 +1878,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>石家庄市</t>
+          <t>秦皇岛市</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1893,7 +1893,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>苏州市</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1908,7 +1908,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>苏州市</t>
+          <t>金昌市</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -1923,7 +1923,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>金昌市</t>
+          <t>镇江市</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -1938,7 +1938,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>镇江市</t>
+          <t>青岛市</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -1953,22 +1953,22 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>青岛市</t>
+          <t>三明市</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>第二批</t>
+          <t>第三批</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>三明市</t>
+          <t>三门峡市</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1983,7 +1983,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>三门峡市</t>
+          <t>乌海市</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1998,7 +1998,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>乌海市</t>
+          <t>六安市</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -2013,7 +2013,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>六安市</t>
+          <t>兰州市</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -2028,7 +2028,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>兰州市</t>
+          <t>南京市</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -2043,7 +2043,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>南京市</t>
+          <t>南平市</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -2058,7 +2058,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>南平市</t>
+          <t>合肥市</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -2073,7 +2073,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>合肥市</t>
+          <t>吉安市</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -2088,7 +2088,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>吴忠市</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -2103,7 +2103,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>和田地区</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -2118,7 +2118,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>和田地区</t>
+          <t>喀什地区</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -2133,7 +2133,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>喀什地区</t>
+          <t>嘉兴市</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -2148,7 +2148,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>嘉兴市</t>
+          <t>宣城市</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -2163,7 +2163,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>宣城市</t>
+          <t>常州市</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -2178,7 +2178,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>常州市</t>
+          <t>广元市</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -2193,7 +2193,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>广元市</t>
+          <t>成都市</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -2208,7 +2208,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>成都市</t>
+          <t>拉萨市</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -2223,7 +2223,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>无锡市</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -2238,7 +2238,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>无锡市</t>
+          <t>昌吉回族自治州</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -2253,7 +2253,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>昌吉回族自治州</t>
+          <t>柳州市</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -2268,7 +2268,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>柳州市</t>
+          <t>株洲市</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -2283,7 +2283,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>株洲市</t>
+          <t>济南市</t>
         </is>
       </c>
       <c r="B124" t="n">
